--- a/PhoenixCI/Excel_Template/S0010.xlsx
+++ b/PhoenixCI/Excel_Template/S0010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689ACE4F-56B9-4F55-958E-600333FBD165}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D7F4AB-FFD3-4449-90A7-FF9E3AB18BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="結算會員" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -280,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +315,8 @@
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -697,25 +698,25 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="18" t="str">
         <f>"資料日期:"&amp;TEXT(E1,"yyyy/mm/dd")</f>
         <v>資料日期:1900/01/00</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="E5" s="4" t="s">
@@ -3168,48 +3169,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="E214" s="1" t="s">
+    <row r="214" spans="1:5" s="15" customFormat="1">
+      <c r="E214" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="15" customFormat="1" ht="16.5">
-      <c r="A217" s="15" t="s">
+    <row r="215" spans="1:5" s="15" customFormat="1"/>
+    <row r="216" spans="1:5" s="15" customFormat="1"/>
+    <row r="217" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A217" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="15" customFormat="1" ht="15.75">
-      <c r="A218" s="15" t="s">
+    <row r="218" spans="1:5" s="17" customFormat="1" ht="15.75">
+      <c r="A218" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="15" customFormat="1" ht="46.9" customHeight="1">
-      <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-    </row>
-    <row r="220" spans="1:5" s="15" customFormat="1" ht="15.75">
-      <c r="A220" s="15" t="s">
+    <row r="219" spans="1:5" s="17" customFormat="1" ht="46.9" customHeight="1">
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+    </row>
+    <row r="220" spans="1:5" s="17" customFormat="1" ht="15.75">
+      <c r="A220" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="15" customFormat="1" ht="46.9" customHeight="1">
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
-    </row>
-    <row r="222" spans="1:5" s="15" customFormat="1" ht="16.5">
-      <c r="A222" s="15" t="s">
+    <row r="221" spans="1:5" s="17" customFormat="1" ht="46.9" customHeight="1">
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+    </row>
+    <row r="222" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A222" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="15" customFormat="1" ht="43.9" customHeight="1">
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
-      <c r="D223" s="20"/>
-      <c r="E223" s="20"/>
+    <row r="223" spans="1:5" s="17" customFormat="1" ht="43.9" customHeight="1">
+      <c r="B223" s="22"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3254,25 +3257,25 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="24.75" customHeight="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="18" t="str">
         <f>"資料日期:"&amp;TEXT(E1,"yyyy/mm/dd")</f>
         <v>資料日期:1900/01/00</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="E5" s="4" t="s">

--- a/PhoenixCI/Excel_Template/S0010.xlsx
+++ b/PhoenixCI/Excel_Template/S0010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D7F4AB-FFD3-4449-90A7-FF9E3AB18BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{689ACE4F-56B9-4F55-958E-600333FBD165}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="結算會員" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -279,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,8 +316,6 @@
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,25 +697,25 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="D4" s="18" t="str">
+      <c r="D4" s="16" t="str">
         <f>"資料日期:"&amp;TEXT(E1,"yyyy/mm/dd")</f>
         <v>資料日期:1900/01/00</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="E5" s="4" t="s">
@@ -3169,50 +3168,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="15" customFormat="1">
-      <c r="E214" s="16" t="s">
+    <row r="214" spans="1:5">
+      <c r="E214" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="15" customFormat="1"/>
-    <row r="216" spans="1:5" s="15" customFormat="1"/>
-    <row r="217" spans="1:5" s="17" customFormat="1" ht="16.5">
-      <c r="A217" s="17" t="s">
+    <row r="217" spans="1:5" s="15" customFormat="1" ht="16.5">
+      <c r="A217" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="17" customFormat="1" ht="15.75">
-      <c r="A218" s="17" t="s">
+    <row r="218" spans="1:5" s="15" customFormat="1" ht="15.75">
+      <c r="A218" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="17" customFormat="1" ht="46.9" customHeight="1">
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-    </row>
-    <row r="220" spans="1:5" s="17" customFormat="1" ht="15.75">
-      <c r="A220" s="17" t="s">
+    <row r="219" spans="1:5" s="15" customFormat="1" ht="46.9" customHeight="1">
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+    </row>
+    <row r="220" spans="1:5" s="15" customFormat="1" ht="15.75">
+      <c r="A220" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="17" customFormat="1" ht="46.9" customHeight="1">
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-    </row>
-    <row r="222" spans="1:5" s="17" customFormat="1" ht="16.5">
-      <c r="A222" s="17" t="s">
+    <row r="221" spans="1:5" s="15" customFormat="1" ht="46.9" customHeight="1">
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+    </row>
+    <row r="222" spans="1:5" s="15" customFormat="1" ht="16.5">
+      <c r="A222" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="17" customFormat="1" ht="43.9" customHeight="1">
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="22"/>
+    <row r="223" spans="1:5" s="15" customFormat="1" ht="43.9" customHeight="1">
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3257,25 +3254,25 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="24.75" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="D4" s="18" t="str">
+      <c r="D4" s="16" t="str">
         <f>"資料日期:"&amp;TEXT(E1,"yyyy/mm/dd")</f>
         <v>資料日期:1900/01/00</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="E5" s="4" t="s">
